--- a/TS Jatai Working/Raja Files/Rule Table Old format.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Table Old format.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1163">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -3739,7 +3739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3811,6 +3811,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4093,11 +4094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="P39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5027,7 +5028,7 @@
       <c r="C26" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="49" t="s">
         <v>380</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -5368,9 +5369,7 @@
       <c r="F35" s="48" t="s">
         <v>1099</v>
       </c>
-      <c r="G35" s="33" t="s">
-        <v>1114</v>
-      </c>
+      <c r="G35" s="33"/>
       <c r="H35" s="36" t="s">
         <v>1131</v>
       </c>
